--- a/sys_SLICE OF LIFE.xlsx
+++ b/sys_SLICE OF LIFE.xlsx
@@ -61,7 +61,7 @@
     <t>Slice of Life</t>
   </si>
   <si>
-    <t>wit</t>
+    <t xml:space="preserve">wit </t>
   </si>
 </sst>
 </file>

--- a/sys_SLICE OF LIFE.xlsx
+++ b/sys_SLICE OF LIFE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>anyaforger</t>

--- a/sys_SLICE OF LIFE.xlsx
+++ b/sys_SLICE OF LIFE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>anyaforger</t>
@@ -61,7 +61,7 @@
     <t>Slice of Life</t>
   </si>
   <si>
-    <t xml:space="preserve">wit </t>
+    <t>wit</t>
   </si>
 </sst>
 </file>

--- a/sys_SLICE OF LIFE.xlsx
+++ b/sys_SLICE OF LIFE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>anyaforger</t>
@@ -61,7 +61,7 @@
     <t>Slice of Life</t>
   </si>
   <si>
-    <t>wit</t>
+    <t xml:space="preserve">wit </t>
   </si>
 </sst>
 </file>

--- a/sys_SLICE OF LIFE.xlsx
+++ b/sys_SLICE OF LIFE.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>User ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>System1</t>
-  </si>
-  <si>
     <t>role code</t>
   </si>
   <si>
@@ -41,24 +35,6 @@
   </si>
   <si>
     <t>blackbellbecky</t>
-  </si>
-  <si>
-    <t>Anya Forger</t>
-  </si>
-  <si>
-    <t>Loid Forger</t>
-  </si>
-  <si>
-    <t>Yuri Briar</t>
-  </si>
-  <si>
-    <t>Franklin Franky</t>
-  </si>
-  <si>
-    <t>Blackbell Becky</t>
-  </si>
-  <si>
-    <t>Slice of Life</t>
   </si>
   <si>
     <t xml:space="preserve">wit </t>
@@ -419,94 +395,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
